--- a/results/I3_N5_M3_T30_C150_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6407969774097</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04600000381469727</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.955934559232491</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.955934559232491</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.2199999999937</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.09</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,12 +595,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -824,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.33301651610693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.95784031971738</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.99539592898705</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1012,15 +1045,169 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.2699999999995</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.12499999999949</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>86.985</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.56999999999948</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1167,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56499999999949</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>174.9599999999993</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1189,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>177.9849999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>168.1149999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>168.4449999999993</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>170.1049999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1277,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>113.295000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>121.65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>125.910000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1332,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.085000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1343,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1354,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1376,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.295000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.910000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.085000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1508,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>174.9599999999993</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
@@ -1519,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>177.9849999999993</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -1530,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>168.1149999999998</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45">
@@ -1541,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>168.4449999999993</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -1552,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>170.1049999999993</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>24.95999999999927</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1720,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>27.98499999999927</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.11499999999978</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -1742,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.44499999999925</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -1753,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>20.10499999999928</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1811,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1822,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1833,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1855,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1877,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1888,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1899,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1910,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1921,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1932,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1943,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1954,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2009,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2020,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2031,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2042,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2053,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2064,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,7 +2292,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2116,7 +2303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2127,7 +2314,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2138,7 +2325,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2149,12 +2336,100 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
